--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Insr</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H2">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I2">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J2">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N2">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q2">
-        <v>47.53608082273523</v>
+        <v>72.38975891153632</v>
       </c>
       <c r="R2">
-        <v>47.53608082273523</v>
+        <v>651.507830203827</v>
       </c>
       <c r="S2">
-        <v>0.01098917592743144</v>
+        <v>0.007182567912572795</v>
       </c>
       <c r="T2">
-        <v>0.01098917592743144</v>
+        <v>0.007182567912572797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H3">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I3">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J3">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q3">
-        <v>18.50506917761633</v>
+        <v>20.538550994336</v>
       </c>
       <c r="R3">
-        <v>18.50506917761633</v>
+        <v>184.846958949024</v>
       </c>
       <c r="S3">
-        <v>0.004277918103943802</v>
+        <v>0.00203785092754534</v>
       </c>
       <c r="T3">
-        <v>0.004277918103943802</v>
+        <v>0.00203785092754534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H4">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I4">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J4">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N4">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q4">
-        <v>31.87194000953566</v>
+        <v>38.82449774565933</v>
       </c>
       <c r="R4">
-        <v>31.87194000953566</v>
+        <v>349.420479710934</v>
       </c>
       <c r="S4">
-        <v>0.007368010779420727</v>
+        <v>0.003852196718468244</v>
       </c>
       <c r="T4">
-        <v>0.007368010779420727</v>
+        <v>0.003852196718468245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H5">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I5">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J5">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N5">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q5">
-        <v>54.95766391444413</v>
+        <v>61.80486134062088</v>
       </c>
       <c r="R5">
-        <v>54.95766391444413</v>
+        <v>556.2437520655878</v>
       </c>
       <c r="S5">
-        <v>0.01270486390261329</v>
+        <v>0.006132326182335302</v>
       </c>
       <c r="T5">
-        <v>0.01270486390261329</v>
+        <v>0.006132326182335301</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H6">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I6">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J6">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N6">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q6">
-        <v>79.73629185388972</v>
+        <v>90.15332819949121</v>
       </c>
       <c r="R6">
-        <v>79.73629185388972</v>
+        <v>811.379953795421</v>
       </c>
       <c r="S6">
-        <v>0.01843307491526167</v>
+        <v>0.008945083007233451</v>
       </c>
       <c r="T6">
-        <v>0.01843307491526167</v>
+        <v>0.008945083007233453</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.1105425157988</v>
+        <v>5.659724333333333</v>
       </c>
       <c r="H7">
-        <v>5.1105425157988</v>
+        <v>16.979173</v>
       </c>
       <c r="I7">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647845</v>
       </c>
       <c r="J7">
-        <v>0.06174129770258461</v>
+        <v>0.03283999818647846</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N7">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q7">
-        <v>34.4684234900755</v>
+        <v>47.26805936738067</v>
       </c>
       <c r="R7">
-        <v>34.4684234900755</v>
+        <v>425.412534306426</v>
       </c>
       <c r="S7">
-        <v>0.00796825407391368</v>
+        <v>0.004689973438323323</v>
       </c>
       <c r="T7">
-        <v>0.00796825407391368</v>
+        <v>0.004689973438323323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H8">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I8">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J8">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N8">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q8">
-        <v>5.903044263370319</v>
+        <v>15.54262507004933</v>
       </c>
       <c r="R8">
-        <v>5.903044263370319</v>
+        <v>139.883625630444</v>
       </c>
       <c r="S8">
-        <v>0.001364639044592123</v>
+        <v>0.001542151290235822</v>
       </c>
       <c r="T8">
-        <v>0.001364639044592123</v>
+        <v>0.001542151290235822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H9">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I9">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J9">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q9">
-        <v>2.297964841896563</v>
+        <v>4.409781195391999</v>
       </c>
       <c r="R9">
-        <v>2.297964841896563</v>
+        <v>39.688030758528</v>
       </c>
       <c r="S9">
-        <v>0.0005312331072648248</v>
+        <v>0.000437541903602636</v>
       </c>
       <c r="T9">
-        <v>0.0005312331072648248</v>
+        <v>0.000437541903602636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H10">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I10">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J10">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N10">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q10">
-        <v>3.95786672732577</v>
+        <v>8.335911337005333</v>
       </c>
       <c r="R10">
-        <v>3.95786672732577</v>
+        <v>75.02320203304799</v>
       </c>
       <c r="S10">
-        <v>0.0009149617093192994</v>
+        <v>0.0008270955752787383</v>
       </c>
       <c r="T10">
-        <v>0.0009149617093192994</v>
+        <v>0.0008270955752787383</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H11">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I11">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J11">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N11">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q11">
-        <v>6.824658597921965</v>
+        <v>13.26996804199289</v>
       </c>
       <c r="R11">
-        <v>6.824658597921965</v>
+        <v>119.429712377936</v>
       </c>
       <c r="S11">
-        <v>0.001577693673504375</v>
+        <v>0.001316656500759463</v>
       </c>
       <c r="T11">
-        <v>0.001577693673504375</v>
+        <v>0.001316656500759463</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H12">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I12">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J12">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N12">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q12">
-        <v>9.901675781092335</v>
+        <v>19.35659684589022</v>
       </c>
       <c r="R12">
-        <v>9.901675781092335</v>
+        <v>174.209371613012</v>
       </c>
       <c r="S12">
-        <v>0.002289024573577577</v>
+        <v>0.00192057652204368</v>
       </c>
       <c r="T12">
-        <v>0.002289024573577577</v>
+        <v>0.00192057652204368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.634628647512897</v>
+        <v>1.215185333333333</v>
       </c>
       <c r="H13">
-        <v>0.634628647512897</v>
+        <v>3.645556</v>
       </c>
       <c r="I13">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792144</v>
       </c>
       <c r="J13">
-        <v>0.00766705220347002</v>
+        <v>0.007050994322792145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N13">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q13">
-        <v>4.280298796807737</v>
+        <v>10.14880744987467</v>
       </c>
       <c r="R13">
-        <v>4.280298796807737</v>
+        <v>91.33926704887202</v>
       </c>
       <c r="S13">
-        <v>0.0009895000952118208</v>
+        <v>0.001006972530871805</v>
       </c>
       <c r="T13">
-        <v>0.0009895000952118208</v>
+        <v>0.001006972530871805</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H14">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I14">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J14">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N14">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q14">
-        <v>716.4844526741539</v>
+        <v>1.904109664043</v>
       </c>
       <c r="R14">
-        <v>716.4844526741539</v>
+        <v>17.136986976387</v>
       </c>
       <c r="S14">
-        <v>0.1656336316211408</v>
+        <v>0.0001889272347444646</v>
       </c>
       <c r="T14">
-        <v>0.1656336316211408</v>
+        <v>0.0001889272347444646</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H15">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I15">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J15">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q15">
-        <v>278.9164384599532</v>
+        <v>0.540237376416</v>
       </c>
       <c r="R15">
-        <v>278.9164384599532</v>
+        <v>4.862136387743999</v>
       </c>
       <c r="S15">
-        <v>0.06447863934594904</v>
+        <v>5.360277065931344E-05</v>
       </c>
       <c r="T15">
-        <v>0.06447863934594904</v>
+        <v>5.360277065931344E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H16">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I16">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J16">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N16">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q16">
-        <v>480.3877201940867</v>
+        <v>1.021223201606</v>
       </c>
       <c r="R16">
-        <v>480.3877201940867</v>
+        <v>9.191008814453999</v>
       </c>
       <c r="S16">
-        <v>0.1110538580215829</v>
+        <v>0.0001013265565422567</v>
       </c>
       <c r="T16">
-        <v>0.1110538580215829</v>
+        <v>0.0001013265565422567</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H17">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I17">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J17">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N17">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q17">
-        <v>828.3457758502877</v>
+        <v>1.625688986025333</v>
       </c>
       <c r="R17">
-        <v>828.3457758502877</v>
+        <v>14.631200874228</v>
       </c>
       <c r="S17">
-        <v>0.1914932258195307</v>
+        <v>0.0001613021195597286</v>
       </c>
       <c r="T17">
-        <v>0.1914932258195307</v>
+        <v>0.0001613021195597286</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>77.0283160480668</v>
+        <v>0.148871</v>
       </c>
       <c r="H18">
-        <v>77.0283160480668</v>
+        <v>0.446613</v>
       </c>
       <c r="I18">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="J18">
-        <v>0.9305916500939454</v>
+        <v>0.000863809451146867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N18">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q18">
-        <v>1201.820016257569</v>
+        <v>2.371355092922333</v>
       </c>
       <c r="R18">
-        <v>1201.820016257569</v>
+        <v>21.342195836301</v>
       </c>
       <c r="S18">
-        <v>0.2778313096742796</v>
+        <v>0.0002352876878696951</v>
       </c>
       <c r="T18">
-        <v>0.2778313096742796</v>
+        <v>0.0002352876878696951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.148871</v>
+      </c>
+      <c r="H19">
+        <v>0.446613</v>
+      </c>
+      <c r="I19">
+        <v>0.000863809451146867</v>
+      </c>
+      <c r="J19">
+        <v>0.000863809451146867</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.351654000000002</v>
+      </c>
+      <c r="N19">
+        <v>25.054962</v>
+      </c>
+      <c r="O19">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="P19">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="Q19">
+        <v>1.243319082634</v>
+      </c>
+      <c r="R19">
+        <v>11.189871743706</v>
+      </c>
+      <c r="S19">
+        <v>0.0001233630817714087</v>
+      </c>
+      <c r="T19">
+        <v>0.0001233630817714087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H20">
+        <v>3.681727</v>
+      </c>
+      <c r="I20">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J20">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.790333</v>
+      </c>
+      <c r="N20">
+        <v>38.370999</v>
+      </c>
+      <c r="O20">
+        <v>0.2187140167239762</v>
+      </c>
+      <c r="P20">
+        <v>0.2187140167239762</v>
+      </c>
+      <c r="Q20">
+        <v>15.69683811503034</v>
+      </c>
+      <c r="R20">
+        <v>141.271543035273</v>
+      </c>
+      <c r="S20">
+        <v>0.001557452427927609</v>
+      </c>
+      <c r="T20">
+        <v>0.001557452427927609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H21">
+        <v>3.681727</v>
+      </c>
+      <c r="I21">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J21">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.628896</v>
+      </c>
+      <c r="N21">
+        <v>10.886688</v>
+      </c>
+      <c r="O21">
+        <v>0.06205392935692685</v>
+      </c>
+      <c r="P21">
+        <v>0.06205392935692684</v>
+      </c>
+      <c r="Q21">
+        <v>4.453534794464001</v>
+      </c>
+      <c r="R21">
+        <v>40.081813150176</v>
+      </c>
+      <c r="S21">
+        <v>0.00044188316957008</v>
+      </c>
+      <c r="T21">
+        <v>0.0004418831695700799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H22">
+        <v>3.681727</v>
+      </c>
+      <c r="I22">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J22">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.859786</v>
+      </c>
+      <c r="N22">
+        <v>20.579358</v>
+      </c>
+      <c r="O22">
+        <v>0.1173019771984746</v>
+      </c>
+      <c r="P22">
+        <v>0.1173019771984746</v>
+      </c>
+      <c r="Q22">
+        <v>8.418619776807335</v>
+      </c>
+      <c r="R22">
+        <v>75.76757799126601</v>
+      </c>
+      <c r="S22">
+        <v>0.000835301970696449</v>
+      </c>
+      <c r="T22">
+        <v>0.0008353019706964489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H23">
+        <v>3.681727</v>
+      </c>
+      <c r="I23">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J23">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.92011866666667</v>
+      </c>
+      <c r="N23">
+        <v>32.76035599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1867334506997697</v>
+      </c>
+      <c r="P23">
+        <v>0.1867334506997697</v>
+      </c>
+      <c r="Q23">
+        <v>13.40163191275689</v>
+      </c>
+      <c r="R23">
+        <v>120.614687214812</v>
+      </c>
+      <c r="S23">
+        <v>0.001329720291931227</v>
+      </c>
+      <c r="T23">
+        <v>0.001329720291931227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H24">
+        <v>3.681727</v>
+      </c>
+      <c r="I24">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J24">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.92892566666667</v>
+      </c>
+      <c r="N24">
+        <v>47.786777</v>
+      </c>
+      <c r="O24">
+        <v>0.2723837850550339</v>
+      </c>
+      <c r="P24">
+        <v>0.2723837850550339</v>
+      </c>
+      <c r="Q24">
+        <v>19.54865190265323</v>
+      </c>
+      <c r="R24">
+        <v>175.937867123879</v>
+      </c>
+      <c r="S24">
+        <v>0.001939632373436127</v>
+      </c>
+      <c r="T24">
+        <v>0.001939632373436127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.227242333333334</v>
+      </c>
+      <c r="H25">
+        <v>3.681727</v>
+      </c>
+      <c r="I25">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="J25">
+        <v>0.007120953888808883</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.351654000000002</v>
+      </c>
+      <c r="N25">
+        <v>25.054962</v>
+      </c>
+      <c r="O25">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="P25">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="Q25">
+        <v>10.24950334215267</v>
+      </c>
+      <c r="R25">
+        <v>92.24553007937402</v>
+      </c>
+      <c r="S25">
+        <v>0.001016963655247392</v>
+      </c>
+      <c r="T25">
+        <v>0.001016963655247391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>164.091384</v>
+      </c>
+      <c r="H26">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I26">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J26">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.790333</v>
+      </c>
+      <c r="N26">
+        <v>38.370999</v>
+      </c>
+      <c r="O26">
+        <v>0.2187140167239762</v>
+      </c>
+      <c r="P26">
+        <v>0.2187140167239762</v>
+      </c>
+      <c r="Q26">
+        <v>2098.783443790872</v>
+      </c>
+      <c r="R26">
+        <v>18889.05099411785</v>
+      </c>
+      <c r="S26">
+        <v>0.2082429178584955</v>
+      </c>
+      <c r="T26">
+        <v>0.2082429178584955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>164.091384</v>
+      </c>
+      <c r="H27">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I27">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J27">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>3.628896</v>
+      </c>
+      <c r="N27">
+        <v>10.886688</v>
+      </c>
+      <c r="O27">
+        <v>0.06205392935692685</v>
+      </c>
+      <c r="P27">
+        <v>0.06205392935692684</v>
+      </c>
+      <c r="Q27">
+        <v>595.4705670320641</v>
+      </c>
+      <c r="R27">
+        <v>5359.235103288576</v>
+      </c>
+      <c r="S27">
+        <v>0.05908305058554948</v>
+      </c>
+      <c r="T27">
+        <v>0.05908305058554948</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>77.0283160480668</v>
-      </c>
-      <c r="H19">
-        <v>77.0283160480668</v>
-      </c>
-      <c r="I19">
-        <v>0.9305916500939454</v>
-      </c>
-      <c r="J19">
-        <v>0.9305916500939454</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>6.74457230000912</v>
-      </c>
-      <c r="N19">
-        <v>6.74457230000912</v>
-      </c>
-      <c r="O19">
-        <v>0.129058739780588</v>
-      </c>
-      <c r="P19">
-        <v>0.129058739780588</v>
-      </c>
-      <c r="Q19">
-        <v>519.5230467341393</v>
-      </c>
-      <c r="R19">
-        <v>519.5230467341393</v>
-      </c>
-      <c r="S19">
-        <v>0.1201009856114625</v>
-      </c>
-      <c r="T19">
-        <v>0.1201009856114625</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>164.091384</v>
+      </c>
+      <c r="H28">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I28">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J28">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>6.859786</v>
+      </c>
+      <c r="N28">
+        <v>20.579358</v>
+      </c>
+      <c r="O28">
+        <v>0.1173019771984746</v>
+      </c>
+      <c r="P28">
+        <v>0.1173019771984746</v>
+      </c>
+      <c r="Q28">
+        <v>1125.631778683824</v>
+      </c>
+      <c r="R28">
+        <v>10130.68600815442</v>
+      </c>
+      <c r="S28">
+        <v>0.111686056377489</v>
+      </c>
+      <c r="T28">
+        <v>0.1116860563774889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>164.091384</v>
+      </c>
+      <c r="H29">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I29">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J29">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10.92011866666667</v>
+      </c>
+      <c r="N29">
+        <v>32.76035599999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1867334506997697</v>
+      </c>
+      <c r="P29">
+        <v>0.1867334506997697</v>
+      </c>
+      <c r="Q29">
+        <v>1791.897385457568</v>
+      </c>
+      <c r="R29">
+        <v>16127.07646911811</v>
+      </c>
+      <c r="S29">
+        <v>0.177793445605184</v>
+      </c>
+      <c r="T29">
+        <v>0.177793445605184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>164.091384</v>
+      </c>
+      <c r="H30">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I30">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J30">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.92892566666667</v>
+      </c>
+      <c r="N30">
+        <v>47.786777</v>
+      </c>
+      <c r="O30">
+        <v>0.2723837850550339</v>
+      </c>
+      <c r="P30">
+        <v>0.2723837850550339</v>
+      </c>
+      <c r="Q30">
+        <v>2613.799458276456</v>
+      </c>
+      <c r="R30">
+        <v>23524.19512448811</v>
+      </c>
+      <c r="S30">
+        <v>0.2593432054644509</v>
+      </c>
+      <c r="T30">
+        <v>0.2593432054644509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>164.091384</v>
+      </c>
+      <c r="H31">
+        <v>492.2741520000001</v>
+      </c>
+      <c r="I31">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="J31">
+        <v>0.9521242441507737</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.351654000000002</v>
+      </c>
+      <c r="N31">
+        <v>25.054962</v>
+      </c>
+      <c r="O31">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="P31">
+        <v>0.1428128409658187</v>
+      </c>
+      <c r="Q31">
+        <v>1370.434463549137</v>
+      </c>
+      <c r="R31">
+        <v>12333.91017194223</v>
+      </c>
+      <c r="S31">
+        <v>0.1359755682596048</v>
+      </c>
+      <c r="T31">
+        <v>0.1359755682596048</v>
       </c>
     </row>
   </sheetData>
